--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R3c8d1dec84224a03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R66c76fb0d8bb4748"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R66c76fb0d8bb4748"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R5950efda0ef44fdb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R5950efda0ef44fdb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1bcb97e15b0d4b90"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1bcb97e15b0d4b90"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R71420183732a4563"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R71420183732a4563"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R0f49cb99a29f460c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R0f49cb99a29f460c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R0c901cc3b6ed43d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R0c901cc3b6ed43d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rea95c6490498425c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rea95c6490498425c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R4df60c5def1e402d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R4df60c5def1e402d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1432973c6ec74732"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1432973c6ec74732"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R98b6ed92d235410c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R98b6ed92d235410c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1cd2688c8beb46b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="R1cd2688c8beb46b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rdce7cb10f8d14555"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,7 +29,7 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/013_MetadataTracking.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rdce7cb10f8d14555"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MetadataTracking" sheetId="1" r:id="Rae8773add763489c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
